--- a/model/Outputs/8. Fixed RE/With PV/Output Files/0/Output_4_27.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/0/Output_4_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2389887.677288707</v>
+        <v>2389887.677288706</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500724</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500724</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177822</v>
+        <v>3940022.790763971</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177822</v>
+        <v>3940022.790763971</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1647482716.269086</v>
+        <v>62480733.92989162</v>
       </c>
     </row>
   </sheetData>
@@ -870,7 +870,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R4" t="n">
-        <v>208.1413738827905</v>
+        <v>208.1413738827904</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T5" t="n">
-        <v>559.5765741190048</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U5" t="n">
         <v>648.751427201877</v>
@@ -970,7 +970,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y5" t="n">
-        <v>511.3174326828064</v>
+        <v>509.92908838983</v>
       </c>
     </row>
     <row r="6">
@@ -998,10 +998,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H6" t="n">
-        <v>300.2841796816783</v>
+        <v>301.8178796392513</v>
       </c>
       <c r="I6" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R7" t="n">
-        <v>208.1413738827904</v>
+        <v>208.1413738827905</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E11" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138922</v>
       </c>
       <c r="F11" t="n">
         <v>404.8896287080119</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>359.620476775678</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T11" t="n">
         <v>560.964918411981</v>
@@ -1569,10 +1569,10 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>25.70923750768748</v>
       </c>
       <c r="O13" t="n">
-        <v>25.70923750768748</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D14" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468735</v>
       </c>
       <c r="E14" t="n">
         <v>404.3632896068686</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>359.620476775678</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T14" t="n">
         <v>560.964918411981</v>
@@ -1861,7 +1861,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F17" t="n">
-        <v>403.5012844150442</v>
+        <v>403.5012844150354</v>
       </c>
       <c r="G17" t="n">
         <v>397.8840054528454</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S18" t="n">
         <v>408.192915058951</v>
@@ -1991,7 +1991,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W18" t="n">
-        <v>430.8394429522557</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X18" t="n">
         <v>419.8627394453875</v>
@@ -2043,7 +2043,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N19" t="n">
-        <v>25.70923750768742</v>
+        <v>25.70923750768748</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>480.6109686626065</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C20" t="n">
         <v>449.4745782429939</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>361.0088210686545</v>
+        <v>359.620476775678</v>
       </c>
       <c r="T20" t="n">
         <v>560.964918411981</v>
@@ -2277,13 +2277,13 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M22" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>25.70923750768742</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F23" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150354</v>
       </c>
       <c r="G23" t="n">
         <v>397.8840054528454</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>359.6204767756861</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T23" t="n">
         <v>560.964918411981</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S24" t="n">
         <v>408.192915058951</v>
@@ -2465,7 +2465,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W24" t="n">
-        <v>432.3731429098285</v>
+        <v>430.8394429522557</v>
       </c>
       <c r="X24" t="n">
         <v>419.8627394453875</v>
@@ -2517,7 +2517,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N25" t="n">
-        <v>25.70923750768742</v>
+        <v>25.70923750768748</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
-        <v>346.4706963201588</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2629,7 +2629,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y26" t="n">
-        <v>511.3174326828064</v>
+        <v>509.92908838983</v>
       </c>
     </row>
     <row r="27">
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>350.6276822404653</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S27" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T27" t="n">
         <v>392.6911708778912</v>
@@ -2751,10 +2751,10 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N28" t="n">
-        <v>133.3568653036801</v>
+        <v>25.70923750768748</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E29" t="n">
-        <v>402.9749453138922</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F29" t="n">
         <v>404.8896287080119</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>361.0088210686545</v>
+        <v>359.620476775678</v>
       </c>
       <c r="T29" t="n">
         <v>560.964918411981</v>
@@ -3040,7 +3040,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D32" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468735</v>
       </c>
       <c r="E32" t="n">
         <v>404.3632896068686</v>
@@ -3103,7 +3103,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y32" t="n">
-        <v>509.92908838983</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="33">
@@ -3164,7 +3164,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S33" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T33" t="n">
         <v>392.6911708778912</v>
@@ -3176,7 +3176,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W33" t="n">
-        <v>430.8394429522557</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X33" t="n">
         <v>419.8627394453875</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>359.620476775678</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T35" t="n">
         <v>560.964918411981</v>
@@ -3340,7 +3340,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y35" t="n">
-        <v>511.3174326828064</v>
+        <v>509.92908838983</v>
       </c>
     </row>
     <row r="36">
@@ -3462,10 +3462,10 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N37" t="n">
-        <v>133.3568653036801</v>
+        <v>25.70923750768748</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D38" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468735</v>
       </c>
       <c r="E38" t="n">
         <v>404.3632896068686</v>
@@ -3523,7 +3523,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G38" t="n">
-        <v>396.495661159869</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H38" t="n">
         <v>347.8590406130752</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>165.2127885434264</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H41" t="n">
-        <v>346.4706963200917</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W41" t="n">
-        <v>638.3734759809475</v>
+        <v>636.9851316879713</v>
       </c>
       <c r="X41" t="n">
         <v>592.2818334606677</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S42" t="n">
         <v>408.192915058951</v>
@@ -3887,7 +3887,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W42" t="n">
-        <v>432.3731429098285</v>
+        <v>430.8394429522557</v>
       </c>
       <c r="X42" t="n">
         <v>419.8627394453875</v>
@@ -3939,7 +3939,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N43" t="n">
-        <v>25.70923750768742</v>
+        <v>25.70923750768748</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -4045,13 +4045,13 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W44" t="n">
-        <v>636.9851316879713</v>
+        <v>638.3734759809475</v>
       </c>
       <c r="X44" t="n">
         <v>592.2818334606677</v>
       </c>
       <c r="Y44" t="n">
-        <v>511.3174326828064</v>
+        <v>509.92908838983</v>
       </c>
     </row>
     <row r="45">
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S45" t="n">
         <v>408.192915058951</v>
@@ -4124,7 +4124,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W45" t="n">
-        <v>432.3731429098285</v>
+        <v>430.8394429522557</v>
       </c>
       <c r="X45" t="n">
         <v>419.8627394453875</v>
@@ -4176,7 +4176,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
-        <v>25.70923750768742</v>
+        <v>25.70923750768748</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>4214.390158686993</v>
       </c>
       <c r="P2" t="n">
-        <v>5912.12964013179</v>
+        <v>5864.602299897899</v>
       </c>
       <c r="Q2" t="n">
         <v>6931.116362236999</v>
@@ -4509,7 +4509,7 @@
         <v>307.8416045893197</v>
       </c>
       <c r="O4" t="n">
-        <v>438.4639669707671</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P4" t="n">
         <v>457.4949902104935</v>
@@ -4588,10 +4588,10 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O5" t="n">
-        <v>5048.61527574625</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P5" t="n">
-        <v>5884.482603843663</v>
+        <v>5864.602299897899</v>
       </c>
       <c r="Q5" t="n">
         <v>6931.116362236999</v>
@@ -4603,19 +4603,19 @@
         <v>6683.344625183179</v>
       </c>
       <c r="T5" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U5" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V5" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W5" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X5" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y5" t="n">
         <v>3067.029708403252</v>
@@ -4646,7 +4646,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H6" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I6" t="n">
         <v>140.96</v>
@@ -4746,7 +4746,7 @@
         <v>307.8416045893197</v>
       </c>
       <c r="O7" t="n">
-        <v>438.4639669707671</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P7" t="n">
         <v>457.4949902104935</v>
@@ -4816,10 +4816,10 @@
         <v>1339.420289043491</v>
       </c>
       <c r="L8" t="n">
-        <v>3071.357825473567</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M8" t="n">
-        <v>3553.537024987069</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N8" t="n">
         <v>4118.580088859741</v>
@@ -4980,7 +4980,7 @@
         <v>307.8416045893197</v>
       </c>
       <c r="N10" t="n">
-        <v>307.8416045893197</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="O10" t="n">
         <v>426.6131206966359</v>
@@ -5023,13 +5023,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C11" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D11" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E11" t="n">
         <v>1303.215227044376</v>
@@ -5062,7 +5062,7 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O11" t="n">
-        <v>5028.734971800485</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P11" t="n">
         <v>5864.602299897899</v>
@@ -5074,25 +5074,25 @@
         <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T11" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U11" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V11" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W11" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X11" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y11" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="12">
@@ -5217,7 +5217,7 @@
         <v>166.9289267754419</v>
       </c>
       <c r="N13" t="n">
-        <v>166.9289267754419</v>
+        <v>140.96</v>
       </c>
       <c r="O13" t="n">
         <v>140.96</v>
@@ -5260,10 +5260,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C14" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D14" t="n">
         <v>1711.662994324041</v>
@@ -5302,7 +5302,7 @@
         <v>4214.390158686993</v>
       </c>
       <c r="P14" t="n">
-        <v>5864.602299897899</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q14" t="n">
         <v>6931.116362236999</v>
@@ -5311,25 +5311,25 @@
         <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T14" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U14" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V14" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W14" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X14" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y14" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="15">
@@ -5497,31 +5497,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2578.759347546139</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C17" t="n">
-        <v>2124.744622048165</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D17" t="n">
-        <v>1710.260626351347</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E17" t="n">
-        <v>1301.812859071682</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F17" t="n">
-        <v>894.2358041069908</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G17" t="n">
-        <v>492.3327682960358</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H17" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="I17" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="J17" t="n">
-        <v>599.7771454756523</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K17" t="n">
         <v>1339.420289043491</v>
@@ -5542,31 +5542,31 @@
         <v>5912.12964013179</v>
       </c>
       <c r="Q17" t="n">
-        <v>6931.116362237007</v>
+        <v>6978.643702470889</v>
       </c>
       <c r="R17" t="n">
         <v>7048</v>
       </c>
       <c r="S17" t="n">
-        <v>6683.344625183187</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T17" t="n">
-        <v>6116.713394464015</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U17" t="n">
-        <v>5461.408922542927</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V17" t="n">
-        <v>4825.195766818862</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W17" t="n">
-        <v>4180.374073908814</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X17" t="n">
-        <v>3582.109595665715</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y17" t="n">
-        <v>3065.627340430558</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="18">
@@ -5588,19 +5588,19 @@
         <v>1224.779007402434</v>
       </c>
       <c r="F18" t="n">
-        <v>881.7120959500335</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G18" t="n">
-        <v>555.8565327448409</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H18" t="n">
-        <v>250.9899876546881</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I18" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="J18" t="n">
-        <v>558.8475295149219</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K18" t="n">
         <v>1250.415257213079</v>
@@ -5624,19 +5624,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R18" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S18" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T18" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U18" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V18" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W18" t="n">
         <v>3503.082427021609</v>
@@ -5655,76 +5655,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="C19" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="D19" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="E19" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="F19" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="G19" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="H19" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="I19" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="J19" t="n">
-        <v>290.4466099967137</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893198</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L19" t="n">
-        <v>275.6639043471517</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M19" t="n">
-        <v>166.9289267754421</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N19" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="O19" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="P19" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="Q19" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="R19" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="S19" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="T19" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="U19" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="V19" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="W19" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="X19" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="Y19" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="20">
@@ -5734,76 +5734,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2580.161715518834</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C20" t="n">
-        <v>2126.14699002086</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D20" t="n">
-        <v>1711.662994324042</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E20" t="n">
-        <v>1303.215227044377</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F20" t="n">
-        <v>894.2358041069908</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G20" t="n">
-        <v>492.3327682960358</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H20" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="J20" t="n">
-        <v>599.7771454756523</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K20" t="n">
-        <v>1443.861463236576</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L20" t="n">
-        <v>3188.241463236578</v>
+        <v>3071.357825473567</v>
       </c>
       <c r="M20" t="n">
-        <v>3670.420662750081</v>
+        <v>3553.537024987069</v>
       </c>
       <c r="N20" t="n">
-        <v>4235.463726622753</v>
+        <v>4118.580088859741</v>
       </c>
       <c r="O20" t="n">
-        <v>5145.618609563497</v>
+        <v>5028.734971800485</v>
       </c>
       <c r="P20" t="n">
-        <v>5981.48593766091</v>
+        <v>5864.602299897899</v>
       </c>
       <c r="Q20" t="n">
-        <v>7048</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R20" t="n">
         <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183187</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464015</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542927</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818862</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908814</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665715</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430558</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="21">
@@ -5825,19 +5825,19 @@
         <v>1224.779007402434</v>
       </c>
       <c r="F21" t="n">
-        <v>881.7120959500335</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G21" t="n">
-        <v>555.8565327448409</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H21" t="n">
-        <v>250.9899876546881</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I21" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="J21" t="n">
-        <v>558.8475295149219</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K21" t="n">
         <v>1250.415257213079</v>
@@ -5892,76 +5892,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="C22" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="D22" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="E22" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="F22" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="G22" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="H22" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="I22" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="J22" t="n">
-        <v>290.4466099967137</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893198</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L22" t="n">
-        <v>275.6639043471517</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M22" t="n">
-        <v>166.9289267754421</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N22" t="n">
-        <v>140.9600000000002</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="O22" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="P22" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="Q22" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="R22" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="S22" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="T22" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="U22" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="V22" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="W22" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="X22" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="Y22" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="23">
@@ -5971,31 +5971,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2580.161715518834</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C23" t="n">
-        <v>2126.14699002086</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D23" t="n">
-        <v>1711.662994324042</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E23" t="n">
-        <v>1303.215227044377</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F23" t="n">
-        <v>894.2358041069908</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G23" t="n">
-        <v>492.3327682960358</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H23" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="J23" t="n">
-        <v>599.7771454756523</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K23" t="n">
         <v>1339.420289043491</v>
@@ -6013,34 +6013,34 @@
         <v>4214.390158686993</v>
       </c>
       <c r="P23" t="n">
-        <v>5864.602299897907</v>
+        <v>5864.602299897899</v>
       </c>
       <c r="Q23" t="n">
-        <v>6931.116362237007</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R23" t="n">
         <v>7048</v>
       </c>
       <c r="S23" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T23" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U23" t="n">
-        <v>5462.811290515622</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V23" t="n">
-        <v>4826.598134791558</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W23" t="n">
-        <v>4181.77644188151</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X23" t="n">
-        <v>3583.511963638411</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y23" t="n">
-        <v>3067.029708403253</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="24">
@@ -6062,19 +6062,19 @@
         <v>1224.779007402434</v>
       </c>
       <c r="F24" t="n">
-        <v>881.7120959500335</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G24" t="n">
-        <v>555.8565327448409</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H24" t="n">
-        <v>250.9899876546881</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I24" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="J24" t="n">
-        <v>558.8475295149219</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K24" t="n">
         <v>1250.415257213079</v>
@@ -6098,19 +6098,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R24" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S24" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T24" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U24" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V24" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W24" t="n">
         <v>3503.082427021609</v>
@@ -6129,76 +6129,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="C25" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="D25" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="E25" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="F25" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="G25" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="H25" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="I25" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="J25" t="n">
-        <v>290.4466099967137</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893198</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L25" t="n">
-        <v>275.6639043471517</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M25" t="n">
-        <v>166.9289267754421</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N25" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="O25" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="P25" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="Q25" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="R25" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="S25" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="T25" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="U25" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="V25" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="W25" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="X25" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
       <c r="Y25" t="n">
-        <v>140.9600000000002</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="26">
@@ -6208,76 +6208,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.759347546192</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048218</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.2606263514</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.812859071735</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F26" t="n">
-        <v>892.833436134349</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G26" t="n">
-        <v>490.930400323394</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H26" t="n">
-        <v>140.9600000000013</v>
+        <v>140.96</v>
       </c>
       <c r="I26" t="n">
-        <v>140.9600000000013</v>
+        <v>140.96</v>
       </c>
       <c r="J26" t="n">
-        <v>599.7771454756535</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K26" t="n">
-        <v>1339.420289043493</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L26" t="n">
-        <v>2257.013012360076</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M26" t="n">
-        <v>2739.192211873578</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N26" t="n">
-        <v>3304.23527574625</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O26" t="n">
-        <v>5048.615275746266</v>
+        <v>5028.734971800485</v>
       </c>
       <c r="P26" t="n">
-        <v>5884.482603843679</v>
+        <v>5864.602299897899</v>
       </c>
       <c r="Q26" t="n">
-        <v>6931.11636223706</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R26" t="n">
         <v>7048</v>
       </c>
       <c r="S26" t="n">
-        <v>6683.344625183241</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T26" t="n">
-        <v>6116.713394464068</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U26" t="n">
-        <v>5461.40892254298</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818915</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908867</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595665768</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.62734043061</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="27">
@@ -6287,43 +6287,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2287.112034235905</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C27" t="n">
-        <v>1922.364647927299</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D27" t="n">
-        <v>1570.912438939721</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E27" t="n">
-        <v>1224.779007402435</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F27" t="n">
-        <v>881.7120959500344</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G27" t="n">
-        <v>555.856532744842</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H27" t="n">
-        <v>250.9899876546891</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I27" t="n">
-        <v>140.9600000000013</v>
+        <v>140.96</v>
       </c>
       <c r="J27" t="n">
-        <v>558.8475295149229</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K27" t="n">
-        <v>1250.41525721308</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L27" t="n">
-        <v>2197.270784374318</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M27" t="n">
-        <v>3071.633876117177</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N27" t="n">
-        <v>4014.060204215311</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O27" t="n">
         <v>4993.313206182049</v>
@@ -6335,28 +6335,28 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R27" t="n">
-        <v>5571.538498249246</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S27" t="n">
         <v>5159.222422432123</v>
       </c>
       <c r="T27" t="n">
-        <v>4762.564674070617</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U27" t="n">
-        <v>4358.520619043175</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V27" t="n">
-        <v>3939.822975415376</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W27" t="n">
-        <v>3503.08242702161</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X27" t="n">
-        <v>3078.978649804047</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y27" t="n">
-        <v>2675.553000545325</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="28">
@@ -6366,76 +6366,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>140.9600000000013</v>
+        <v>140.96</v>
       </c>
       <c r="C28" t="n">
-        <v>140.9600000000013</v>
+        <v>140.96</v>
       </c>
       <c r="D28" t="n">
-        <v>140.9600000000013</v>
+        <v>140.96</v>
       </c>
       <c r="E28" t="n">
-        <v>140.9600000000013</v>
+        <v>140.96</v>
       </c>
       <c r="F28" t="n">
-        <v>140.9600000000013</v>
+        <v>140.96</v>
       </c>
       <c r="G28" t="n">
-        <v>140.9600000000013</v>
+        <v>140.96</v>
       </c>
       <c r="H28" t="n">
-        <v>140.9600000000013</v>
+        <v>140.96</v>
       </c>
       <c r="I28" t="n">
-        <v>140.9600000000013</v>
+        <v>140.96</v>
       </c>
       <c r="J28" t="n">
-        <v>290.4466099967149</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K28" t="n">
-        <v>307.8416045893209</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L28" t="n">
-        <v>275.6639043471529</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M28" t="n">
-        <v>275.6639043471529</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N28" t="n">
-        <v>140.9600000000013</v>
+        <v>140.96</v>
       </c>
       <c r="O28" t="n">
-        <v>140.9600000000013</v>
+        <v>140.96</v>
       </c>
       <c r="P28" t="n">
-        <v>140.9600000000013</v>
+        <v>140.96</v>
       </c>
       <c r="Q28" t="n">
-        <v>140.9600000000013</v>
+        <v>140.96</v>
       </c>
       <c r="R28" t="n">
-        <v>140.9600000000013</v>
+        <v>140.96</v>
       </c>
       <c r="S28" t="n">
-        <v>140.9600000000013</v>
+        <v>140.96</v>
       </c>
       <c r="T28" t="n">
-        <v>140.9600000000013</v>
+        <v>140.96</v>
       </c>
       <c r="U28" t="n">
-        <v>140.9600000000013</v>
+        <v>140.96</v>
       </c>
       <c r="V28" t="n">
-        <v>140.9600000000013</v>
+        <v>140.96</v>
       </c>
       <c r="W28" t="n">
-        <v>140.9600000000013</v>
+        <v>140.96</v>
       </c>
       <c r="X28" t="n">
-        <v>140.9600000000013</v>
+        <v>140.96</v>
       </c>
       <c r="Y28" t="n">
-        <v>140.9600000000013</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C29" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D29" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E29" t="n">
         <v>1303.215227044376</v>
@@ -6484,10 +6484,10 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O29" t="n">
-        <v>5028.734971800485</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P29" t="n">
-        <v>5864.602299897899</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q29" t="n">
         <v>6931.116362236999</v>
@@ -6496,25 +6496,25 @@
         <v>7048</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.344625183179</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W29" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X29" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y29" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="30">
@@ -6682,10 +6682,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C32" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D32" t="n">
         <v>1711.662994324041</v>
@@ -6721,10 +6721,10 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O32" t="n">
-        <v>5048.61527574625</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P32" t="n">
-        <v>5884.482603843663</v>
+        <v>5864.602299897899</v>
       </c>
       <c r="Q32" t="n">
         <v>6931.116362236999</v>
@@ -6751,7 +6751,7 @@
         <v>3582.109595665706</v>
       </c>
       <c r="Y32" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="33">
@@ -6812,16 +6812,16 @@
         <v>5569.989306372909</v>
       </c>
       <c r="S33" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T33" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U33" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V33" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W33" t="n">
         <v>3503.082427021609</v>
@@ -6961,7 +6961,7 @@
         <v>4214.390158686993</v>
       </c>
       <c r="P35" t="n">
-        <v>5864.602299897899</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q35" t="n">
         <v>6931.116362236999</v>
@@ -6970,22 +6970,22 @@
         <v>7048</v>
       </c>
       <c r="S35" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T35" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U35" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V35" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W35" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X35" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y35" t="n">
         <v>3067.029708403252</v>
@@ -7110,7 +7110,7 @@
         <v>275.6639043471516</v>
       </c>
       <c r="M37" t="n">
-        <v>275.6639043471516</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N37" t="n">
         <v>140.96</v>
@@ -7162,13 +7162,13 @@
         <v>2124.744622048156</v>
       </c>
       <c r="D38" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E38" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F38" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G38" t="n">
         <v>492.3327682960356</v>
@@ -7198,7 +7198,7 @@
         <v>4214.390158686993</v>
       </c>
       <c r="P38" t="n">
-        <v>5864.602299897899</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q38" t="n">
         <v>6931.116362236999</v>
@@ -7344,13 +7344,13 @@
         <v>307.8416045893197</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="O40" t="n">
         <v>140.96</v>
@@ -7393,31 +7393,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2578.759347546123</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C41" t="n">
-        <v>2124.744622048149</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D41" t="n">
-        <v>1710.260626351331</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E41" t="n">
-        <v>1301.812859071666</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F41" t="n">
-        <v>892.8334361342799</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G41" t="n">
-        <v>490.9304003233249</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H41" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="I41" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="J41" t="n">
-        <v>599.777145475652</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K41" t="n">
         <v>1339.420289043491</v>
@@ -7435,34 +7435,34 @@
         <v>4214.390158686993</v>
       </c>
       <c r="P41" t="n">
-        <v>5864.602299897891</v>
+        <v>5864.602299897899</v>
       </c>
       <c r="Q41" t="n">
-        <v>6931.11636223699</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R41" t="n">
         <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183171</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394463998</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922542911</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766818846</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073908798</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X41" t="n">
-        <v>3582.109595665699</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y41" t="n">
-        <v>3065.627340430541</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="42">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2287.112034235903</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C42" t="n">
         <v>1922.364647927298</v>
@@ -7484,25 +7484,25 @@
         <v>1224.779007402434</v>
       </c>
       <c r="F42" t="n">
-        <v>881.712095950033</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G42" t="n">
-        <v>555.8565327448406</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H42" t="n">
-        <v>250.9899876546877</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I42" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="J42" t="n">
-        <v>558.8475295149215</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K42" t="n">
-        <v>1250.415257213078</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L42" t="n">
-        <v>2197.270784374316</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M42" t="n">
         <v>3071.633876117176</v>
@@ -7511,34 +7511,34 @@
         <v>4014.06020421531</v>
       </c>
       <c r="O42" t="n">
-        <v>4993.313206182048</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P42" t="n">
-        <v>5699.926775368535</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q42" t="n">
-        <v>5925.707874249715</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R42" t="n">
-        <v>5571.538498249244</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S42" t="n">
-        <v>5159.222422432122</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T42" t="n">
-        <v>4762.564674070615</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U42" t="n">
-        <v>4358.520619043173</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V42" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W42" t="n">
         <v>3503.082427021609</v>
       </c>
       <c r="X42" t="n">
-        <v>3078.978649804045</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y42" t="n">
         <v>2675.553000545324</v>
@@ -7551,76 +7551,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="C43" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="D43" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="E43" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="F43" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="G43" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="H43" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="I43" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="J43" t="n">
-        <v>290.4466099967134</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8416045893194</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L43" t="n">
-        <v>275.6639043471514</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M43" t="n">
-        <v>166.9289267754417</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N43" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="O43" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="P43" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="Q43" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="R43" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="S43" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="T43" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="U43" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="V43" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="W43" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="X43" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="44">
@@ -7642,19 +7642,19 @@
         <v>1303.215227044376</v>
       </c>
       <c r="F44" t="n">
-        <v>894.2358041069904</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G44" t="n">
-        <v>492.3327682960355</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H44" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="I44" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="J44" t="n">
-        <v>599.777145475652</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K44" t="n">
         <v>1339.420289043491</v>
@@ -7663,16 +7663,16 @@
         <v>2257.013012360075</v>
       </c>
       <c r="M44" t="n">
-        <v>3553.537024987069</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N44" t="n">
-        <v>4118.580088859741</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O44" t="n">
-        <v>5028.734971800485</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P44" t="n">
-        <v>5864.602299897899</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q44" t="n">
         <v>6931.116362236999</v>
@@ -7693,10 +7693,10 @@
         <v>4825.195766818853</v>
       </c>
       <c r="W44" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X44" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y44" t="n">
         <v>3067.029708403252</v>
@@ -7709,7 +7709,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2287.112034235903</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C45" t="n">
         <v>1922.364647927298</v>
@@ -7721,25 +7721,25 @@
         <v>1224.779007402434</v>
       </c>
       <c r="F45" t="n">
-        <v>881.712095950033</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G45" t="n">
-        <v>555.8565327448406</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H45" t="n">
-        <v>250.9899876546877</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I45" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="J45" t="n">
-        <v>558.8475295149215</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K45" t="n">
-        <v>1250.415257213078</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L45" t="n">
-        <v>2197.270784374316</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M45" t="n">
         <v>3071.633876117176</v>
@@ -7748,34 +7748,34 @@
         <v>4014.06020421531</v>
       </c>
       <c r="O45" t="n">
-        <v>4993.313206182048</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P45" t="n">
-        <v>5699.926775368535</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q45" t="n">
-        <v>5925.707874249715</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R45" t="n">
-        <v>5571.538498249244</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S45" t="n">
-        <v>5159.222422432122</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T45" t="n">
-        <v>4762.564674070615</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U45" t="n">
-        <v>4358.520619043173</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V45" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W45" t="n">
         <v>3503.082427021609</v>
       </c>
       <c r="X45" t="n">
-        <v>3078.978649804045</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y45" t="n">
         <v>2675.553000545324</v>
@@ -7788,76 +7788,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="C46" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="D46" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="E46" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="F46" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="G46" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="H46" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="I46" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="J46" t="n">
-        <v>290.4466099967134</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8416045893194</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L46" t="n">
-        <v>275.6639043471514</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M46" t="n">
-        <v>166.9289267754417</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N46" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="O46" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="P46" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="Q46" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="R46" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="S46" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="T46" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="U46" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="V46" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="W46" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="X46" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.9599999999999</v>
+        <v>140.96</v>
       </c>
     </row>
   </sheetData>
@@ -8002,10 +8002,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>870.5779326741233</v>
+        <v>822.5705182964562</v>
       </c>
       <c r="Q2" t="n">
-        <v>567.8446588919066</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R2" t="n">
         <v>294.54111633436</v>
@@ -8236,13 +8236,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>842.6516333931884</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>822.5705182964562</v>
       </c>
       <c r="Q5" t="n">
-        <v>595.7709581728425</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R5" t="n">
         <v>294.54111633436</v>
@@ -8464,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>822.5705182964566</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>822.5705182964564</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>822.5705182964564</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>822.5705182964562</v>
       </c>
       <c r="Q11" t="n">
         <v>615.8520732695737</v>
@@ -8950,10 +8950,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>822.5705182964562</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q14" t="n">
-        <v>615.8520732695737</v>
+        <v>567.8446588919066</v>
       </c>
       <c r="R14" t="n">
         <v>294.54111633436</v>
@@ -9190,10 +9190,10 @@
         <v>870.5779326741233</v>
       </c>
       <c r="Q17" t="n">
-        <v>567.8446588919148</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R17" t="n">
-        <v>294.54111633436</v>
+        <v>246.5337019566922</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9409,10 +9409,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>105.4961355485698</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L20" t="n">
-        <v>835.1386633165855</v>
+        <v>105.6954007733575</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9430,7 +9430,7 @@
         <v>615.8520732695737</v>
       </c>
       <c r="R20" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>822.5705182964646</v>
+        <v>822.5705182964562</v>
       </c>
       <c r="Q23" t="n">
         <v>615.8520732695737</v>
@@ -9895,13 +9895,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>842.6516333932038</v>
+        <v>822.5705182964564</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>595.7709581728884</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R26" t="n">
         <v>294.54111633436</v>
@@ -10132,13 +10132,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>822.5705182964564</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q29" t="n">
-        <v>615.8520732695737</v>
+        <v>567.8446588919066</v>
       </c>
       <c r="R29" t="n">
         <v>294.54111633436</v>
@@ -10369,13 +10369,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>842.6516333931884</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>822.5705182964562</v>
       </c>
       <c r="Q32" t="n">
-        <v>595.7709581728425</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R32" t="n">
         <v>294.54111633436</v>
@@ -10609,10 +10609,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>822.5705182964562</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q35" t="n">
-        <v>615.8520732695737</v>
+        <v>567.8446588919066</v>
       </c>
       <c r="R35" t="n">
         <v>294.54111633436</v>
@@ -10846,10 +10846,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>822.5705182964562</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q38" t="n">
-        <v>615.8520732695737</v>
+        <v>567.8446588919066</v>
       </c>
       <c r="R38" t="n">
         <v>294.54111633436</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>822.570518296448</v>
+        <v>822.5705182964562</v>
       </c>
       <c r="Q41" t="n">
         <v>615.8520732695737</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>822.5705182964565</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11320,10 +11320,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q44" t="n">
-        <v>615.8520732695737</v>
+        <v>567.8446588919066</v>
       </c>
       <c r="R44" t="n">
         <v>294.54111633436</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.388344292976456</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23457,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O13" t="n">
-        <v>242.3489823090323</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P13" t="n">
         <v>368.8061924102448</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.388344292976228</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.388344292967645</v>
+        <v>1.388344292976456</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23931,7 +23931,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>142.3116902230137</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O19" t="n">
         <v>268.0582198167198</v>
@@ -23974,7 +23974,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.388344292967929</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.388344292976512</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24165,13 +24165,13 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
-        <v>142.3116902230137</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O22" t="n">
-        <v>268.0582198167198</v>
+        <v>134.7013545130397</v>
       </c>
       <c r="P22" t="n">
         <v>368.8061924102448</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.388344292976456</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.388344292968384</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24338,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24405,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>142.3116902230137</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O25" t="n">
         <v>268.0582198167198</v>
@@ -24466,7 +24466,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.388344292916429</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24517,7 +24517,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.388344292976342</v>
       </c>
     </row>
     <row r="27">
@@ -24575,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1.533699957574299</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24639,10 +24639,10 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>34.66406242702101</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O28" t="n">
         <v>268.0582198167198</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.388344292976456</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.388344292976512</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.388344292976228</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24991,7 +24991,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.388344292976342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25228,7 +25228,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1.388344292976342</v>
       </c>
     </row>
     <row r="36">
@@ -25350,10 +25350,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>34.66406242702101</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O37" t="n">
         <v>268.0582198167198</v>
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.388344292976228</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25584,7 +25584,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>107.6476277959926</v>
@@ -25593,7 +25593,7 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O40" t="n">
-        <v>102.8454312732933</v>
+        <v>134.7013545130397</v>
       </c>
       <c r="P40" t="n">
         <v>368.8061924102448</v>
@@ -25651,7 +25651,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.388344292983447</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1.388344292976285</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25827,7 +25827,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>142.3116902230137</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O43" t="n">
         <v>268.0582198167198</v>
@@ -25933,13 +25933,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>1.388344292976285</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1.388344292976342</v>
       </c>
     </row>
     <row r="45">
@@ -25997,7 +25997,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26064,7 +26064,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>142.3116902230137</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O46" t="n">
         <v>268.0582198167198</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16723.98526579371</v>
+        <v>1378975.792486732</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33270.40339222729</v>
+        <v>2732806.110844271</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49816.82151866086</v>
+        <v>4086636.429201811</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68649.41921426967</v>
+        <v>5299282.597556977</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87482.0169098785</v>
+        <v>6511928.765912144</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>106314.6146054873</v>
+        <v>7724574.934267302</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125147.2123010961</v>
+        <v>8937221.102622457</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>143979.8099967049</v>
+        <v>10149867.27097761</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>162812.4076923137</v>
+        <v>11362513.43933277</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>181645.0053879225</v>
+        <v>12575159.60768792</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>200477.6030835314</v>
+        <v>13787805.77604308</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>219310.2007791402</v>
+        <v>15000451.94439825</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>238142.7984747492</v>
+        <v>16213098.11275342</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>256975.3961703582</v>
+        <v>17425744.2811086</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>275807.9938659673</v>
+        <v>18638390.44946378</v>
       </c>
     </row>
   </sheetData>
@@ -26322,43 +26322,43 @@
         <v>850079.5022245016</v>
       </c>
       <c r="C2" t="n">
-        <v>850079.5022245016</v>
+        <v>850079.5022245015</v>
       </c>
       <c r="D2" t="n">
         <v>850079.5022245013</v>
       </c>
       <c r="E2" t="n">
-        <v>761428.9894323123</v>
+        <v>761428.9894323121</v>
       </c>
       <c r="F2" t="n">
         <v>761428.9894323123</v>
       </c>
       <c r="G2" t="n">
-        <v>761428.9894323128</v>
+        <v>761428.9894323122</v>
       </c>
       <c r="H2" t="n">
+        <v>761428.9894323124</v>
+      </c>
+      <c r="I2" t="n">
+        <v>761428.9894323122</v>
+      </c>
+      <c r="J2" t="n">
+        <v>761428.9894323123</v>
+      </c>
+      <c r="K2" t="n">
         <v>761428.9894323125</v>
       </c>
-      <c r="I2" t="n">
-        <v>761428.9894323128</v>
-      </c>
-      <c r="J2" t="n">
-        <v>761428.9894323155</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>761428.9894323123</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>761428.9894323125</v>
+      </c>
+      <c r="N2" t="n">
         <v>761428.9894323124</v>
       </c>
-      <c r="M2" t="n">
-        <v>761428.9894323123</v>
-      </c>
-      <c r="N2" t="n">
-        <v>761428.9894323125</v>
-      </c>
       <c r="O2" t="n">
-        <v>761428.989432312</v>
+        <v>761428.9894323124</v>
       </c>
       <c r="P2" t="n">
         <v>761428.9894323123</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>620224.0000000049</v>
+        <v>620224</v>
       </c>
       <c r="K3" t="n">
-        <v>-3.775749628742536e-09</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26438,16 +26438,16 @@
         <v>26356.19966309948</v>
       </c>
       <c r="G4" t="n">
-        <v>26356.19966309954</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="H4" t="n">
-        <v>26356.19966309955</v>
+        <v>26356.19966309948</v>
       </c>
       <c r="I4" t="n">
-        <v>26356.19966309955</v>
+        <v>26356.19966309948</v>
       </c>
       <c r="J4" t="n">
-        <v>26356.19966309998</v>
+        <v>26356.19966309948</v>
       </c>
       <c r="K4" t="n">
         <v>26356.19966309948</v>
@@ -26462,7 +26462,7 @@
         <v>26356.19966309948</v>
       </c>
       <c r="O4" t="n">
-        <v>26356.19966309941</v>
+        <v>26356.19966309948</v>
       </c>
       <c r="P4" t="n">
         <v>26356.19966309948</v>
@@ -26530,46 +26530,46 @@
         <v>-1468875.03866173</v>
       </c>
       <c r="C6" t="n">
-        <v>576125.9123927511</v>
+        <v>576125.912392751</v>
       </c>
       <c r="D6" t="n">
         <v>576428.2730626839</v>
       </c>
       <c r="E6" t="n">
-        <v>596093.3897692128</v>
+        <v>596093.3897692126</v>
       </c>
       <c r="F6" t="n">
         <v>596093.3897692128</v>
       </c>
       <c r="G6" t="n">
-        <v>596093.3897692132</v>
+        <v>596093.3897692127</v>
       </c>
       <c r="H6" t="n">
         <v>596093.3897692129</v>
       </c>
       <c r="I6" t="n">
-        <v>596093.3897692132</v>
+        <v>596093.3897692127</v>
       </c>
       <c r="J6" t="n">
-        <v>-24130.6102307894</v>
+        <v>-24130.61023078716</v>
       </c>
       <c r="K6" t="n">
-        <v>596093.3897692183</v>
+        <v>596093.389769213</v>
       </c>
       <c r="L6" t="n">
+        <v>596093.3897692128</v>
+      </c>
+      <c r="M6" t="n">
+        <v>596093.389769213</v>
+      </c>
+      <c r="N6" t="n">
         <v>596093.3897692129</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
+        <v>596093.3897692129</v>
+      </c>
+      <c r="P6" t="n">
         <v>596093.3897692128</v>
-      </c>
-      <c r="N6" t="n">
-        <v>596093.389769213</v>
-      </c>
-      <c r="O6" t="n">
-        <v>596093.3897692126</v>
-      </c>
-      <c r="P6" t="n">
-        <v>596093.3897692129</v>
       </c>
     </row>
   </sheetData>
@@ -27705,10 +27705,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O4" t="n">
+        <v>388.0294482079482</v>
+      </c>
+      <c r="P4" t="n">
         <v>400</v>
-      </c>
-      <c r="P4" t="n">
-        <v>388.0294482079482</v>
       </c>
       <c r="Q4" t="n">
         <v>400</v>
@@ -27799,7 +27799,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.388344292976171</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27814,7 +27814,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1.388344292976342</v>
       </c>
     </row>
     <row r="6">
@@ -27842,10 +27842,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.533699957573063</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27942,10 +27942,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O7" t="n">
+        <v>388.0294482079482</v>
+      </c>
+      <c r="P7" t="n">
         <v>400</v>
-      </c>
-      <c r="P7" t="n">
-        <v>388.0294482079482</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -28176,10 +28176,10 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N10" t="n">
-        <v>168.0209277307011</v>
+        <v>287.9921561219296</v>
       </c>
       <c r="O10" t="n">
-        <v>388.0294482079482</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P10" t="n">
         <v>400</v>
@@ -34846,10 +34846,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P2" t="n">
-        <v>1714.888365095753</v>
+        <v>1666.880950718086</v>
       </c>
       <c r="Q2" t="n">
-        <v>1029.279517277989</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R2" t="n">
         <v>118.0642805686905</v>
@@ -35001,10 +35001,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>131.9417801832802</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="P4" t="n">
-        <v>19.22325579770342</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35080,13 +35080,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O5" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P5" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718086</v>
       </c>
       <c r="Q5" t="n">
-        <v>1057.205816558925</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R5" t="n">
         <v>118.0642805686905</v>
@@ -35238,10 +35238,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>131.9417801832802</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="P7" t="n">
-        <v>19.22325579770342</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35308,13 +35308,13 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L8" t="n">
-        <v>1749.431854979874</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N8" t="n">
-        <v>570.7505695683558</v>
+        <v>1393.321087864812</v>
       </c>
       <c r="O8" t="n">
         <v>919.3483666068121</v>
@@ -35472,10 +35472,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="O10" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>31.19380758975518</v>
@@ -35554,10 +35554,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O11" t="n">
-        <v>1741.918884903268</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P11" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718086</v>
       </c>
       <c r="Q11" t="n">
         <v>1077.286931655656</v>
@@ -35794,10 +35794,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P14" t="n">
-        <v>1666.880950718086</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q14" t="n">
-        <v>1077.286931655656</v>
+        <v>1029.279517277989</v>
       </c>
       <c r="R14" t="n">
         <v>118.0642805686905</v>
@@ -36019,7 +36019,7 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L17" t="n">
-        <v>926.8613366834172</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
@@ -36034,10 +36034,10 @@
         <v>1714.888365095753</v>
       </c>
       <c r="Q17" t="n">
-        <v>1029.279517277997</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R17" t="n">
-        <v>118.0642805686905</v>
+        <v>70.05686619102268</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36253,10 +36253,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>852.6104219807306</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L20" t="n">
-        <v>1762</v>
+        <v>1032.556737456774</v>
       </c>
       <c r="M20" t="n">
         <v>487.0496964782857</v>
@@ -36274,7 +36274,7 @@
         <v>1077.286931655656</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36493,7 +36493,7 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L23" t="n">
-        <v>926.8613366834172</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M23" t="n">
         <v>487.0496964782857</v>
@@ -36505,7 +36505,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>1666.880950718094</v>
+        <v>1666.880950718086</v>
       </c>
       <c r="Q23" t="n">
         <v>1077.286931655656</v>
@@ -36739,13 +36739,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
-        <v>1762</v>
+        <v>1741.918884903268</v>
       </c>
       <c r="P26" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q26" t="n">
-        <v>1057.205816558971</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R26" t="n">
         <v>118.0642805686905</v>
@@ -36976,13 +36976,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O29" t="n">
-        <v>1741.918884903268</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P29" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q29" t="n">
-        <v>1077.286931655656</v>
+        <v>1029.279517277989</v>
       </c>
       <c r="R29" t="n">
         <v>118.0642805686905</v>
@@ -37213,13 +37213,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O32" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P32" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718086</v>
       </c>
       <c r="Q32" t="n">
-        <v>1057.205816558925</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R32" t="n">
         <v>118.0642805686905</v>
@@ -37453,10 +37453,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
-        <v>1666.880950718086</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q35" t="n">
-        <v>1077.286931655656</v>
+        <v>1029.279517277989</v>
       </c>
       <c r="R35" t="n">
         <v>118.0642805686905</v>
@@ -37690,10 +37690,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>1666.880950718086</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q38" t="n">
-        <v>1077.286931655656</v>
+        <v>1029.279517277989</v>
       </c>
       <c r="R38" t="n">
         <v>118.0642805686905</v>
@@ -37912,7 +37912,7 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L41" t="n">
         <v>926.8613366834174</v>
@@ -37927,7 +37927,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P41" t="n">
-        <v>1666.880950718078</v>
+        <v>1666.880950718086</v>
       </c>
       <c r="Q41" t="n">
         <v>1077.286931655656</v>
@@ -38149,13 +38149,13 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L44" t="n">
         <v>926.8613366834174</v>
       </c>
       <c r="M44" t="n">
-        <v>1309.620214774742</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N44" t="n">
         <v>570.7505695683558</v>
@@ -38164,10 +38164,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P44" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q44" t="n">
-        <v>1077.286931655656</v>
+        <v>1029.279517277989</v>
       </c>
       <c r="R44" t="n">
         <v>118.0642805686905</v>
